--- a/results/metric_df/MAL-I_metrics.xlsx
+++ b/results/metric_df/MAL-I_metrics.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,980 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>glycan</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>binding_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>flexibility</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>has_multi_node_motifs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5992915385182999</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8.799612018495054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.396110483550542</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2558350144234151</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>8.453665741516511</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.164236923862696</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1356901064480652</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>8.355157635508638</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.247270730530527</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2129738696803468</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>8.290303211728977</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.429567505748488</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3146235728707924</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>7.416830898618245</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.329847161271619</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3054806631881741</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.886548224278215</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.03021929117201</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2388633716046398</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>15.14707107057198</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23.79159542523948</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.047841927642053</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>14.92272561215115</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.10555853829389</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4486658120463096</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6.816415114013028</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.82356722778296</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.727859487165873</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>7.071401416012039</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.41136766250869</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.3114827940936278</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6.568522327559429</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.31274608210807</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.978918909069908</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>28.71181702422474</v>
+      </c>
+      <c r="F13" t="n">
+        <v>61.4698698922281</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.695617233597893</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>27.97633332651948</v>
+      </c>
+      <c r="F14" t="n">
+        <v>59.94271699270217</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.457265093603267</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>16.12935362702905</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.24685201280596</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6856545257882817</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8.465497166577157</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.154672161089099</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.768331787512613</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8.074485103683525</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.323236861512225</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.403561453659844</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>8.410592337418924</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.138747776527413</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5639572487268817</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8.483877571010149</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.509309332567637</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7271326354105423</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>8.406046885657618</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.631326214271228</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5678473918517756</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-3)', 'Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>15.00892794395829</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.994232892013484</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.0686046882351663</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.623780038376944</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.241511525674218</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-4)GlcNAc(b1-2)]Man</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.585667435551494</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>7.521951066591416</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6.272765639313373</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.0362567067750108</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>8.243242327253643</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.2357806838936</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.293115776246248</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>7.726713635242172</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.063616819885816</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2343692158735395</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>7.463868421727727</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.042177906767149</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2935124383374113</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>7.485843955616165</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.611071119407292</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5409984551123285</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>7.351529765416914</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.129344220778871</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0453376325058739</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7.298867224217123</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.001308137406856</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7863429721462505</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6.814577014477784</v>
+      </c>
+      <c r="F30" t="n">
+        <v>17.10663088020195</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.3007682136057477</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6.816415114013028</v>
+      </c>
+      <c r="F31" t="n">
+        <v>16.82356722778296</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8336393492061425</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.943534070975648</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.454662418287213</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.2155781721050776</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)', 'Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.910425322070216</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.956328000680412</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>